--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_160.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_160.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:00:13.600000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:03.340000', '0:00:06.820000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -528,677 +538,646 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[('0:00:09.060000', '0:00:14.300000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:12.094553', '0:00:24.840113')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38), (43.68, 45.8)]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[('0:00:01.900000', '0:00:05.580000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.675</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.24, 16.18)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3611111111111111</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['F', 'Bb', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (13.42, 19.5)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1575797872340425</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1187888198757764</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(51.315598, 63.292358)]</t>
+          <t>[['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.366281, 14.704603)]</t>
+          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:01.014823', '0:00:06.126439')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(14.9, 20.36)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(26.987959, 33.059977)]</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'A', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/5', 'F/5', 'Eb/5']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(70.712128, 75.058526)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(5.9078, 9.297913)]</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4357142857142857</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[('0:00:16.341609', '0:00:23.354036')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(112.14, 117.46)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(118.78, 126.08)]</t>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1052955665024631</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(33.431496, 38.307687)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(6.126439, 9.980952)]</t>
+          <t>[('0:00:34.860000', '0:00:39.700000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>[('0:00:32.440000', '0:00:34.800000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09250474383301707</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D', 'D/5', 'D']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(46.365011, 53.946326)]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(90.564195, 93.10678)]</t>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(105.28, 122.26)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(11.0, 16.52)]</t>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(12.394648, 21.12535)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(23.42, 33.96)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
